--- a/CashFlow/MTCH_cashflow.xlsx
+++ b/CashFlow/MTCH_cashflow.xlsx
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>103059000.0</v>
+        <v>110555000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>71896000.0</v>
+        <v>56266000.0</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>51576000.0</v>
